--- a/Code/Results/Cases/Case_2_165/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_165/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.53219755985644</v>
+        <v>14.72694269319203</v>
       </c>
       <c r="C2">
-        <v>6.721256199874542</v>
+        <v>10.02214985923283</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.28135827323989</v>
+        <v>15.67841776750739</v>
       </c>
       <c r="F2">
-        <v>28.40305998832449</v>
+        <v>40.29838067125225</v>
       </c>
       <c r="G2">
-        <v>2.111130504436369</v>
+        <v>3.674794739095985</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.600897690608206</v>
+        <v>8.481277689131128</v>
       </c>
       <c r="K2">
-        <v>10.74642489164907</v>
+        <v>10.30328710115067</v>
       </c>
       <c r="L2">
-        <v>8.220507526703484</v>
+        <v>12.19591756634791</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.24922214917283</v>
+        <v>20.43505483960072</v>
       </c>
       <c r="O2">
-        <v>17.11629104846514</v>
+        <v>26.8640291203732</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.67021323145748</v>
+        <v>14.52577575470528</v>
       </c>
       <c r="C3">
-        <v>6.755351580925185</v>
+        <v>10.03588197905311</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.05017516347837</v>
+        <v>15.6749958021157</v>
       </c>
       <c r="F3">
-        <v>27.83757727806207</v>
+        <v>40.31766005521795</v>
       </c>
       <c r="G3">
-        <v>2.115715282212566</v>
+        <v>3.676536782166882</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.594239105705786</v>
+        <v>8.480015979050343</v>
       </c>
       <c r="K3">
-        <v>10.09031987656132</v>
+        <v>10.16472380428016</v>
       </c>
       <c r="L3">
-        <v>7.968049707385203</v>
+        <v>12.17689187081391</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.45259952147221</v>
+        <v>20.49608661225827</v>
       </c>
       <c r="O3">
-        <v>17.16263694249412</v>
+        <v>26.94583676861788</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.11694891312105</v>
+        <v>14.40361127369492</v>
       </c>
       <c r="C4">
-        <v>6.777314123662846</v>
+        <v>10.04481949068168</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.910343781988155</v>
+        <v>15.67528297528058</v>
       </c>
       <c r="F4">
-        <v>27.50524178413222</v>
+        <v>40.33809977951206</v>
       </c>
       <c r="G4">
-        <v>2.118620245858954</v>
+        <v>3.677663511670437</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.590350270758341</v>
+        <v>8.479325010176394</v>
       </c>
       <c r="K4">
-        <v>9.665240845211935</v>
+        <v>10.08037332212831</v>
       </c>
       <c r="L4">
-        <v>7.812260082295087</v>
+        <v>12.16694818076342</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.58028778521721</v>
+        <v>20.53531187402903</v>
       </c>
       <c r="O4">
-        <v>17.20350796426894</v>
+        <v>27.00084713093472</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.88561976680645</v>
+        <v>14.35422767855418</v>
       </c>
       <c r="C5">
-        <v>6.786521806655846</v>
+        <v>10.04858917193937</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.853961334274304</v>
+        <v>15.67600239067981</v>
       </c>
       <c r="F5">
-        <v>27.37364760095653</v>
+        <v>40.34859270290187</v>
       </c>
       <c r="G5">
-        <v>2.119827109462442</v>
+        <v>3.678137067592289</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.588816058790576</v>
+        <v>8.479064603694923</v>
       </c>
       <c r="K5">
-        <v>9.48644476604345</v>
+        <v>10.046222155222</v>
       </c>
       <c r="L5">
-        <v>7.748669402791641</v>
+        <v>12.16333629386287</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.63305084389047</v>
+        <v>20.55173822171144</v>
       </c>
       <c r="O5">
-        <v>17.22316895498737</v>
+        <v>27.02446510894241</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.84685890316904</v>
+        <v>14.34605341642152</v>
       </c>
       <c r="C6">
-        <v>6.788066286446363</v>
+        <v>10.04922284007987</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.844637295827969</v>
+        <v>15.6761582810294</v>
       </c>
       <c r="F6">
-        <v>27.35203068864262</v>
+        <v>40.35046571496124</v>
       </c>
       <c r="G6">
-        <v>2.120028914667647</v>
+        <v>3.678216572490033</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.588564364309068</v>
+        <v>8.479022645305175</v>
       </c>
       <c r="K6">
-        <v>9.456419922963438</v>
+        <v>10.04056595270685</v>
       </c>
       <c r="L6">
-        <v>7.738106630951084</v>
+        <v>12.16276322013059</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.64185675482953</v>
+        <v>20.55449252232216</v>
       </c>
       <c r="O6">
-        <v>17.22661182768361</v>
+        <v>27.02845934635881</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.11385264305912</v>
+        <v>14.4029435740891</v>
       </c>
       <c r="C7">
-        <v>6.777437258802298</v>
+        <v>10.04486981291329</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.909580869426453</v>
+        <v>15.67529023625487</v>
       </c>
       <c r="F7">
-        <v>27.50345141249671</v>
+        <v>40.33823253059621</v>
       </c>
       <c r="G7">
-        <v>2.11863642804387</v>
+        <v>3.67766983982892</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.590329374873122</v>
+        <v>8.479321412380783</v>
       </c>
       <c r="K7">
-        <v>9.662852073615008</v>
+        <v>10.0799117955555</v>
       </c>
       <c r="L7">
-        <v>7.811402777739769</v>
+        <v>12.16689768305254</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.5809963865379</v>
+        <v>20.53553161520357</v>
       </c>
       <c r="O7">
-        <v>17.20376110118768</v>
+        <v>27.00116079083966</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.24005466005391</v>
+        <v>14.65733520379532</v>
       </c>
       <c r="C8">
-        <v>6.732798503384645</v>
+        <v>10.0267798987001</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.20124773287323</v>
+        <v>15.6767433575893</v>
       </c>
       <c r="F8">
-        <v>28.20505484237105</v>
+        <v>40.30324341115117</v>
       </c>
       <c r="G8">
-        <v>2.112692963939608</v>
+        <v>3.675383569444044</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.59856060693382</v>
+        <v>8.480825342942488</v>
       </c>
       <c r="K8">
-        <v>10.52481982625226</v>
+        <v>10.25538300992692</v>
       </c>
       <c r="L8">
-        <v>8.133674587443451</v>
+        <v>12.18899872950491</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.31877594417397</v>
+        <v>20.45573585847206</v>
       </c>
       <c r="O8">
-        <v>17.12962420374111</v>
+        <v>26.89124357555349</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.25266260925983</v>
+        <v>15.16431819284102</v>
       </c>
       <c r="C9">
-        <v>6.653454926886305</v>
+        <v>9.995304144736474</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.78706715932366</v>
+        <v>15.69845377820867</v>
       </c>
       <c r="F9">
-        <v>29.69432128993993</v>
+        <v>40.30282545638072</v>
       </c>
       <c r="G9">
-        <v>2.101729072626836</v>
+        <v>3.671351307585515</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.616268943261849</v>
+        <v>8.48443405291898</v>
       </c>
       <c r="K9">
-        <v>12.0385750336361</v>
+        <v>10.60352921404752</v>
       </c>
       <c r="L9">
-        <v>8.755786282628909</v>
+        <v>12.24598098593008</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.82585907656322</v>
+        <v>20.31309348299676</v>
       </c>
       <c r="O9">
-        <v>17.08801152928427</v>
+        <v>26.71367674935442</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.6400413098131</v>
+        <v>15.53826905199952</v>
       </c>
       <c r="C10">
-        <v>6.600218689048286</v>
+        <v>9.974594580628562</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.22216085393443</v>
+        <v>15.72577092924718</v>
       </c>
       <c r="F10">
-        <v>30.85122184265613</v>
+        <v>40.34395993506232</v>
       </c>
       <c r="G10">
-        <v>2.09406295638704</v>
+        <v>3.668660984412944</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.630209425871206</v>
+        <v>8.487481299559759</v>
       </c>
       <c r="K10">
-        <v>13.04345814928941</v>
+        <v>10.85948189390988</v>
       </c>
       <c r="L10">
-        <v>9.20241070114928</v>
+        <v>12.29594777272384</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.4751763406182</v>
+        <v>20.21664321151805</v>
       </c>
       <c r="O10">
-        <v>17.12799861200708</v>
+        <v>26.60644198800437</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.27650917666849</v>
+        <v>15.70798540993317</v>
       </c>
       <c r="C11">
-        <v>6.577116423420051</v>
+        <v>9.965693176104121</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.42038467214134</v>
+        <v>15.74063330312708</v>
       </c>
       <c r="F11">
-        <v>31.38978373525968</v>
+        <v>40.37162242040339</v>
       </c>
       <c r="G11">
-        <v>2.09065237106483</v>
+        <v>3.667495586835761</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.636746645717941</v>
+        <v>8.48895223804997</v>
       </c>
       <c r="K11">
-        <v>13.47752714039034</v>
+        <v>10.9754819173111</v>
       </c>
       <c r="L11">
-        <v>9.402536666869803</v>
+        <v>12.32038714647999</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.31777414154367</v>
+        <v>20.17455999949638</v>
       </c>
       <c r="O11">
-        <v>17.16309409520684</v>
+        <v>26.56271494694356</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.51256501462275</v>
+        <v>15.7721370671525</v>
       </c>
       <c r="C12">
-        <v>6.568530496501804</v>
+        <v>9.962396794780865</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.49543427084366</v>
+        <v>15.74660829003183</v>
       </c>
       <c r="F12">
-        <v>31.59537977252016</v>
+        <v>40.3833784580677</v>
       </c>
       <c r="G12">
-        <v>2.089371254518823</v>
+        <v>3.667062639814848</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.639249558045996</v>
+        <v>8.489521307671485</v>
       </c>
       <c r="K12">
-        <v>13.6386056042376</v>
+        <v>11.01930708227928</v>
       </c>
       <c r="L12">
-        <v>9.477825602674905</v>
+        <v>12.32988272116686</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.25844456613498</v>
+        <v>20.15888058296382</v>
       </c>
       <c r="O12">
-        <v>17.17894521177718</v>
+        <v>26.54688460306303</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.46194593559439</v>
+        <v>15.75832695554898</v>
       </c>
       <c r="C13">
-        <v>6.570372370905962</v>
+        <v>9.963103426029994</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.47927243763134</v>
+        <v>15.74530609546986</v>
       </c>
       <c r="F13">
-        <v>31.55102910225088</v>
+        <v>40.38078972850429</v>
       </c>
       <c r="G13">
-        <v>2.089646714057834</v>
+        <v>3.667155511362383</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.638709304446619</v>
+        <v>8.489398214140669</v>
       </c>
       <c r="K13">
-        <v>13.6040605870757</v>
+        <v>11.00987367410983</v>
       </c>
       <c r="L13">
-        <v>9.461633591059098</v>
+        <v>12.32782704471202</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.27121051524843</v>
+        <v>20.16224603289982</v>
       </c>
       <c r="O13">
-        <v>17.17541540547843</v>
+        <v>26.55026154684615</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.29602874428789</v>
+        <v>15.71326586858218</v>
       </c>
       <c r="C14">
-        <v>6.576406786522031</v>
+        <v>9.96542049177607</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.4265596218885</v>
+        <v>15.74111793583134</v>
       </c>
       <c r="F14">
-        <v>31.40666570092774</v>
+        <v>40.37256396567957</v>
       </c>
       <c r="G14">
-        <v>2.090546768253358</v>
+        <v>3.667459800632158</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.636952016931713</v>
+        <v>8.488998814840375</v>
       </c>
       <c r="K14">
-        <v>13.49084504050168</v>
+        <v>10.97908969446897</v>
       </c>
       <c r="L14">
-        <v>9.408740938294532</v>
+        <v>12.3211635536195</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.31288772657433</v>
+        <v>20.17326490886794</v>
       </c>
       <c r="O14">
-        <v>17.16434609938586</v>
+        <v>26.56139797488807</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.19375523547181</v>
+        <v>15.68564778269132</v>
       </c>
       <c r="C15">
-        <v>6.580124255378883</v>
+        <v>9.966849439647852</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.39426816331327</v>
+        <v>15.7385976446824</v>
       </c>
       <c r="F15">
-        <v>31.3184512120922</v>
+        <v>40.36769205178405</v>
       </c>
       <c r="G15">
-        <v>2.091099411886327</v>
+        <v>3.667647274609276</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.635879174234111</v>
+        <v>8.488755737635611</v>
       </c>
       <c r="K15">
-        <v>13.42106898500647</v>
+        <v>10.96021925614576</v>
       </c>
       <c r="L15">
-        <v>9.376276726799148</v>
+        <v>12.31711319829204</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.33845113011414</v>
+        <v>20.18004766844074</v>
       </c>
       <c r="O15">
-        <v>17.15790324221303</v>
+        <v>26.5683142208995</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.59774955485533</v>
+        <v>15.52716461332451</v>
       </c>
       <c r="C16">
-        <v>6.601751083896278</v>
+        <v>9.975186734759275</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.20920752800414</v>
+        <v>15.72484837219905</v>
       </c>
       <c r="F16">
-        <v>30.81626296979049</v>
+        <v>40.34233172465041</v>
       </c>
       <c r="G16">
-        <v>2.094287337008368</v>
+        <v>3.668738318464456</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.62978607983487</v>
+        <v>8.487386864443696</v>
       </c>
       <c r="K16">
-        <v>13.01462848690029</v>
+        <v>10.85188891497482</v>
       </c>
       <c r="L16">
-        <v>9.189265711562173</v>
+        <v>12.29438458554826</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.485503154256</v>
+        <v>20.21942941723374</v>
       </c>
       <c r="O16">
-        <v>17.12605635064022</v>
+        <v>26.60940147631961</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.22322710692152</v>
+        <v>15.42979619916395</v>
       </c>
       <c r="C17">
-        <v>6.615305420084828</v>
+        <v>9.980434222568348</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.09571346406034</v>
+        <v>15.71703519158456</v>
       </c>
       <c r="F17">
-        <v>30.51125059412494</v>
+        <v>40.3290622999107</v>
       </c>
       <c r="G17">
-        <v>2.096262243954115</v>
+        <v>3.669422578556557</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.626097780208282</v>
+        <v>8.486568716741893</v>
       </c>
       <c r="K17">
-        <v>12.75939874612421</v>
+        <v>10.78529238713256</v>
       </c>
       <c r="L17">
-        <v>9.073717846725932</v>
+        <v>12.28087570637625</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.57623808387515</v>
+        <v>20.24404710606831</v>
       </c>
       <c r="O17">
-        <v>17.11094180446123</v>
+        <v>26.63590271944162</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.02179828880068</v>
+        <v>15.37375866022409</v>
       </c>
       <c r="C18">
-        <v>6.623206340738926</v>
+        <v>9.983501353195621</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.03046575468472</v>
+        <v>15.71277072772457</v>
       </c>
       <c r="F18">
-        <v>30.33697790086212</v>
+        <v>40.32227295174858</v>
       </c>
       <c r="G18">
-        <v>2.097405424681677</v>
+        <v>3.669821650276847</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.623994828951926</v>
+        <v>8.486106122765646</v>
       </c>
       <c r="K18">
-        <v>12.61042547985008</v>
+        <v>10.74694923431143</v>
       </c>
       <c r="L18">
-        <v>9.006973983782917</v>
+        <v>12.27326694488777</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.6286283700706</v>
+        <v>20.25837533780856</v>
       </c>
       <c r="O18">
-        <v>17.10383170604936</v>
+        <v>26.651621222048</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.95329043171983</v>
+        <v>15.35478134295153</v>
       </c>
       <c r="C19">
-        <v>6.625899403261156</v>
+        <v>9.984548241625642</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.00838113221405</v>
+        <v>15.71136636230693</v>
       </c>
       <c r="F19">
-        <v>30.27817532676864</v>
+        <v>40.32011912987164</v>
       </c>
       <c r="G19">
-        <v>2.0977937529804</v>
+        <v>3.669957715557859</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.623285997162379</v>
+        <v>8.485950871319179</v>
       </c>
       <c r="K19">
-        <v>12.55961208857262</v>
+        <v>10.73396148362837</v>
       </c>
       <c r="L19">
-        <v>8.984328762614036</v>
+        <v>12.2707185776145</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.64640240164751</v>
+        <v>20.26325565647414</v>
       </c>
       <c r="O19">
-        <v>17.10169232856734</v>
+        <v>26.6570248964483</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.26343521856668</v>
+        <v>15.44016516685101</v>
       </c>
       <c r="C20">
-        <v>6.613851675065139</v>
+        <v>9.979870558356085</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.10779230794729</v>
+        <v>15.71784319184293</v>
       </c>
       <c r="F20">
-        <v>30.54360021730648</v>
+        <v>40.33038765979505</v>
       </c>
       <c r="G20">
-        <v>2.096051264208042</v>
+        <v>3.669349168612742</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.62648850030834</v>
+        <v>8.486654984671215</v>
       </c>
       <c r="K20">
-        <v>12.7867930260628</v>
+        <v>10.79238598219208</v>
       </c>
       <c r="L20">
-        <v>9.086047918171332</v>
+        <v>12.28229710172156</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.56655850822483</v>
+        <v>20.24140905066698</v>
       </c>
       <c r="O20">
-        <v>17.11238595534114</v>
+        <v>26.63303237530275</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.34489684852394</v>
+        <v>15.72650502093922</v>
       </c>
       <c r="C21">
-        <v>6.574629907098537</v>
+        <v>9.964737897026515</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.44204344233088</v>
+        <v>15.74233871199124</v>
       </c>
       <c r="F21">
-        <v>31.44902468356906</v>
+        <v>40.37494536416769</v>
       </c>
       <c r="G21">
-        <v>2.090282123620452</v>
+        <v>3.667370196828252</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.637467437161008</v>
+        <v>8.489115801888888</v>
       </c>
       <c r="K21">
-        <v>13.52418839600875</v>
+        <v>10.98813475659357</v>
       </c>
       <c r="L21">
-        <v>9.424290623337985</v>
+        <v>12.32311428417598</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.30063890142467</v>
+        <v>20.17002144364247</v>
       </c>
       <c r="O21">
-        <v>17.16752687411812</v>
+        <v>26.5581071645923</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.02280590402802</v>
+        <v>15.91294090217656</v>
       </c>
       <c r="C22">
-        <v>6.549943979437571</v>
+        <v>9.955281271849222</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.66039497309846</v>
+        <v>15.76036839850507</v>
       </c>
       <c r="F22">
-        <v>32.05036917417394</v>
+        <v>40.41152857246511</v>
       </c>
       <c r="G22">
-        <v>2.086571938814568</v>
+        <v>3.666125556184286</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.644802172644882</v>
+        <v>8.490794306412912</v>
       </c>
       <c r="K22">
-        <v>13.98693179651377</v>
+        <v>11.11545885984953</v>
       </c>
       <c r="L22">
-        <v>9.64244905419495</v>
+        <v>12.35119247406961</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.12843377616008</v>
+        <v>20.12486053668769</v>
       </c>
       <c r="O22">
-        <v>17.21855374111893</v>
+        <v>26.51338390402859</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.66361842562451</v>
+        <v>15.81352008591743</v>
       </c>
       <c r="C23">
-        <v>6.563031846559624</v>
+        <v>9.960288893099065</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.54388315047242</v>
+        <v>15.75056190541936</v>
       </c>
       <c r="F23">
-        <v>31.7285768421708</v>
+        <v>40.39132295631656</v>
       </c>
       <c r="G23">
-        <v>2.08854684058847</v>
+        <v>3.666785398620193</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.640873164604061</v>
+        <v>8.489892074352481</v>
       </c>
       <c r="K23">
-        <v>13.74170428268888</v>
+        <v>11.04757191861853</v>
       </c>
       <c r="L23">
-        <v>9.526296086816858</v>
+        <v>12.33608002307412</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.22020806442012</v>
+        <v>20.14882735414396</v>
       </c>
       <c r="O23">
-        <v>17.18990522271397</v>
+        <v>26.53686474971998</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.24526766898119</v>
+        <v>15.43547753621847</v>
       </c>
       <c r="C24">
-        <v>6.614508575845479</v>
+        <v>9.980125234310218</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.10233145350228</v>
+        <v>15.71747718624151</v>
       </c>
       <c r="F24">
-        <v>30.52897157081089</v>
+        <v>40.32978584940314</v>
       </c>
       <c r="G24">
-        <v>2.096146623868788</v>
+        <v>3.669382339548057</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.626311801184903</v>
+        <v>8.486615958725761</v>
       </c>
       <c r="K24">
-        <v>12.77441504545444</v>
+        <v>10.78917913904966</v>
       </c>
       <c r="L24">
-        <v>9.080474466093152</v>
+        <v>12.28165399738943</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.57093393951308</v>
+        <v>20.2426011696909</v>
       </c>
       <c r="O24">
-        <v>17.11172814494674</v>
+        <v>26.63432855474856</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.72979608641513</v>
+        <v>15.02665824816331</v>
       </c>
       <c r="C25">
-        <v>6.674036652792243</v>
+        <v>10.0033933820091</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.62750226713217</v>
+        <v>15.69057393303463</v>
       </c>
       <c r="F25">
-        <v>29.27994492378761</v>
+        <v>40.29564725125706</v>
       </c>
       <c r="G25">
-        <v>2.104624334061243</v>
+        <v>3.672394140650407</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.611312968591166</v>
+        <v>8.483387823713857</v>
       </c>
       <c r="K25">
-        <v>11.64795564443251</v>
+        <v>10.50915220426303</v>
       </c>
       <c r="L25">
-        <v>8.589029412670891</v>
+        <v>12.22912639090664</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.95707813602589</v>
+        <v>20.35020964861654</v>
       </c>
       <c r="O25">
-        <v>17.08741018231514</v>
+        <v>26.75763981222441</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_165/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_165/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.72694269319203</v>
+        <v>14.5321975598564</v>
       </c>
       <c r="C2">
-        <v>10.02214985923283</v>
+        <v>6.721256199874673</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.67841776750739</v>
+        <v>10.28135827323993</v>
       </c>
       <c r="F2">
-        <v>40.29838067125225</v>
+        <v>28.40305998832453</v>
       </c>
       <c r="G2">
-        <v>3.674794739095985</v>
+        <v>2.11113050443637</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.481277689131128</v>
+        <v>5.600897690608175</v>
       </c>
       <c r="K2">
-        <v>10.30328710115067</v>
+        <v>10.74642489164908</v>
       </c>
       <c r="L2">
-        <v>12.19591756634791</v>
+        <v>8.2205075267035</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.43505483960072</v>
+        <v>13.24922214917287</v>
       </c>
       <c r="O2">
-        <v>26.8640291203732</v>
+        <v>17.11629104846513</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.52577575470528</v>
+        <v>13.67021323145747</v>
       </c>
       <c r="C3">
-        <v>10.03588197905311</v>
+        <v>6.755351580925052</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.6749958021157</v>
+        <v>10.05017516347833</v>
       </c>
       <c r="F3">
-        <v>40.31766005521795</v>
+        <v>27.83757727806187</v>
       </c>
       <c r="G3">
-        <v>3.676536782166882</v>
+        <v>2.115715282212701</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.480015979050343</v>
+        <v>5.594239105705885</v>
       </c>
       <c r="K3">
-        <v>10.16472380428016</v>
+        <v>10.09031987656126</v>
       </c>
       <c r="L3">
-        <v>12.17689187081391</v>
+        <v>7.96804970738518</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.49608661225827</v>
+        <v>13.45259952147211</v>
       </c>
       <c r="O3">
-        <v>26.94583676861788</v>
+        <v>17.16263694249404</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.40361127369492</v>
+        <v>13.11694891312107</v>
       </c>
       <c r="C4">
-        <v>10.04481949068168</v>
+        <v>6.777314123662846</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.67528297528058</v>
+        <v>9.910343781988249</v>
       </c>
       <c r="F4">
-        <v>40.33809977951206</v>
+        <v>27.50524178413249</v>
       </c>
       <c r="G4">
-        <v>3.677663511670437</v>
+        <v>2.118620245858687</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.479325010176394</v>
+        <v>5.590350270758338</v>
       </c>
       <c r="K4">
-        <v>10.08037332212831</v>
+        <v>9.665240845211917</v>
       </c>
       <c r="L4">
-        <v>12.16694818076342</v>
+        <v>7.812260082295157</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.53531187402903</v>
+        <v>13.58028778521727</v>
       </c>
       <c r="O4">
-        <v>27.00084713093472</v>
+        <v>17.20350796426909</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.35422767855418</v>
+        <v>12.8856197668064</v>
       </c>
       <c r="C5">
-        <v>10.04858917193937</v>
+        <v>6.786521806655845</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.67600239067981</v>
+        <v>9.853961334274249</v>
       </c>
       <c r="F5">
-        <v>40.34859270290187</v>
+        <v>27.37364760095633</v>
       </c>
       <c r="G5">
-        <v>3.678137067592289</v>
+        <v>2.119827109462573</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.479064603694923</v>
+        <v>5.588816058790511</v>
       </c>
       <c r="K5">
-        <v>10.046222155222</v>
+        <v>9.48644476604345</v>
       </c>
       <c r="L5">
-        <v>12.16333629386287</v>
+        <v>7.748669402791656</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20.55173822171144</v>
+        <v>13.63305084389037</v>
       </c>
       <c r="O5">
-        <v>27.02446510894241</v>
+        <v>17.22316895498721</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.34605341642152</v>
+        <v>12.84685890316902</v>
       </c>
       <c r="C6">
-        <v>10.04922284007987</v>
+        <v>6.78806628644623</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.6761582810294</v>
+        <v>9.84463729582802</v>
       </c>
       <c r="F6">
-        <v>40.35046571496124</v>
+        <v>27.35203068864269</v>
       </c>
       <c r="G6">
-        <v>3.678216572490033</v>
+        <v>2.120028914667647</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.479022645305175</v>
+        <v>5.588564364309001</v>
       </c>
       <c r="K6">
-        <v>10.04056595270685</v>
+        <v>9.456419922963422</v>
       </c>
       <c r="L6">
-        <v>12.16276322013059</v>
+        <v>7.738106630951114</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>20.55449252232216</v>
+        <v>13.6418567548295</v>
       </c>
       <c r="O6">
-        <v>27.02845934635881</v>
+        <v>17.22661182768359</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.4029435740891</v>
+        <v>13.11385264305915</v>
       </c>
       <c r="C7">
-        <v>10.04486981291329</v>
+        <v>6.777437258802833</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.67529023625487</v>
+        <v>9.909580869426454</v>
       </c>
       <c r="F7">
-        <v>40.33823253059621</v>
+        <v>27.50345141249664</v>
       </c>
       <c r="G7">
-        <v>3.67766983982892</v>
+        <v>2.118636428044002</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.479321412380783</v>
+        <v>5.590329374873124</v>
       </c>
       <c r="K7">
-        <v>10.0799117955555</v>
+        <v>9.662852073615058</v>
       </c>
       <c r="L7">
-        <v>12.16689768305254</v>
+        <v>7.811402777739716</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.53553161520357</v>
+        <v>13.58099638653787</v>
       </c>
       <c r="O7">
-        <v>27.00116079083966</v>
+        <v>17.20376110118757</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.65733520379532</v>
+        <v>14.24005466005389</v>
       </c>
       <c r="C8">
-        <v>10.0267798987001</v>
+        <v>6.732798503384779</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.6767433575893</v>
+        <v>10.20124773287328</v>
       </c>
       <c r="F8">
-        <v>40.30324341115117</v>
+        <v>28.20505484237091</v>
       </c>
       <c r="G8">
-        <v>3.675383569444044</v>
+        <v>2.112692963939607</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.480825342942488</v>
+        <v>5.598560606933757</v>
       </c>
       <c r="K8">
-        <v>10.25538300992692</v>
+        <v>10.52481982625232</v>
       </c>
       <c r="L8">
-        <v>12.18899872950491</v>
+        <v>8.13367458744346</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.45573585847206</v>
+        <v>13.31877594417391</v>
       </c>
       <c r="O8">
-        <v>26.89124357555349</v>
+        <v>17.12962420374089</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.16431819284102</v>
+        <v>16.25266260925984</v>
       </c>
       <c r="C9">
-        <v>9.995304144736474</v>
+        <v>6.653454926886305</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.69845377820867</v>
+        <v>10.78706715932371</v>
       </c>
       <c r="F9">
-        <v>40.30282545638072</v>
+        <v>29.69432128994001</v>
       </c>
       <c r="G9">
-        <v>3.671351307585515</v>
+        <v>2.101729072627104</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.48443405291898</v>
+        <v>5.616268943261882</v>
       </c>
       <c r="K9">
-        <v>10.60352921404752</v>
+        <v>12.0385750336361</v>
       </c>
       <c r="L9">
-        <v>12.24598098593008</v>
+        <v>8.75578628262892</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.31309348299676</v>
+        <v>12.82585907656325</v>
       </c>
       <c r="O9">
-        <v>26.71367674935442</v>
+        <v>17.08801152928432</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.53826905199952</v>
+        <v>17.64004130981312</v>
       </c>
       <c r="C10">
-        <v>9.974594580628562</v>
+        <v>6.600218689048287</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.72577092924718</v>
+        <v>11.22216085393449</v>
       </c>
       <c r="F10">
-        <v>40.34395993506232</v>
+        <v>30.85122184265609</v>
       </c>
       <c r="G10">
-        <v>3.668660984412944</v>
+        <v>2.094062956387306</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.487481299559759</v>
+        <v>5.630209425871238</v>
       </c>
       <c r="K10">
-        <v>10.85948189390988</v>
+        <v>13.04345814928945</v>
       </c>
       <c r="L10">
-        <v>12.29594777272384</v>
+        <v>9.202410701149317</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>20.21664321151805</v>
+        <v>12.47517634061814</v>
       </c>
       <c r="O10">
-        <v>26.60644198800437</v>
+        <v>17.12799861200698</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.70798540993317</v>
+        <v>18.27650917666848</v>
       </c>
       <c r="C11">
-        <v>9.965693176104121</v>
+        <v>6.577116423420051</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.74063330312708</v>
+        <v>11.42038467214131</v>
       </c>
       <c r="F11">
-        <v>40.37162242040339</v>
+        <v>31.38978373525967</v>
       </c>
       <c r="G11">
-        <v>3.667495586835761</v>
+        <v>2.090652371064831</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.48895223804997</v>
+        <v>5.636746645717877</v>
       </c>
       <c r="K11">
-        <v>10.9754819173111</v>
+        <v>13.47752714039033</v>
       </c>
       <c r="L11">
-        <v>12.32038714647999</v>
+        <v>9.402536666869771</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.17455999949638</v>
+        <v>12.31777414154367</v>
       </c>
       <c r="O11">
-        <v>26.56271494694356</v>
+        <v>17.16309409520683</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.7721370671525</v>
+        <v>18.51256501462278</v>
       </c>
       <c r="C12">
-        <v>9.962396794780865</v>
+        <v>6.568530496502062</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.74660829003183</v>
+        <v>11.49543427084369</v>
       </c>
       <c r="F12">
-        <v>40.3833784580677</v>
+        <v>31.59537977252016</v>
       </c>
       <c r="G12">
-        <v>3.667062639814848</v>
+        <v>2.089371254518958</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.489521307671485</v>
+        <v>5.639249558045958</v>
       </c>
       <c r="K12">
-        <v>11.01930708227928</v>
+        <v>13.63860560423764</v>
       </c>
       <c r="L12">
-        <v>12.32988272116686</v>
+        <v>9.477825602674891</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.15888058296382</v>
+        <v>12.25844456613498</v>
       </c>
       <c r="O12">
-        <v>26.54688460306303</v>
+        <v>17.17894521177713</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.75832695554898</v>
+        <v>18.46194593559446</v>
       </c>
       <c r="C13">
-        <v>9.963103426029994</v>
+        <v>6.570372370905821</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.74530609546986</v>
+        <v>11.47927243763137</v>
       </c>
       <c r="F13">
-        <v>40.38078972850429</v>
+        <v>31.5510291022509</v>
       </c>
       <c r="G13">
-        <v>3.667155511362383</v>
+        <v>2.0896467140577</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.489398214140669</v>
+        <v>5.638709304446649</v>
       </c>
       <c r="K13">
-        <v>11.00987367410983</v>
+        <v>13.60406058707571</v>
       </c>
       <c r="L13">
-        <v>12.32782704471202</v>
+        <v>9.461633591059137</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.16224603289982</v>
+        <v>12.27121051524846</v>
       </c>
       <c r="O13">
-        <v>26.55026154684615</v>
+        <v>17.17541540547845</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.71326586858218</v>
+        <v>18.29602874428793</v>
       </c>
       <c r="C14">
-        <v>9.96542049177607</v>
+        <v>6.576406786521892</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.74111793583134</v>
+        <v>11.4265596218885</v>
       </c>
       <c r="F14">
-        <v>40.37256396567957</v>
+        <v>31.40666570092769</v>
       </c>
       <c r="G14">
-        <v>3.667459800632158</v>
+        <v>2.090546768253223</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.488998814840375</v>
+        <v>5.636952016931648</v>
       </c>
       <c r="K14">
-        <v>10.97908969446897</v>
+        <v>13.49084504050173</v>
       </c>
       <c r="L14">
-        <v>12.3211635536195</v>
+        <v>9.408740938294526</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.17326490886794</v>
+        <v>12.31288772657426</v>
       </c>
       <c r="O14">
-        <v>26.56139797488807</v>
+        <v>17.16434609938577</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.68564778269132</v>
+        <v>18.19375523547181</v>
       </c>
       <c r="C15">
-        <v>9.966849439647852</v>
+        <v>6.580124255379016</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.7385976446824</v>
+        <v>11.39426816331332</v>
       </c>
       <c r="F15">
-        <v>40.36769205178405</v>
+        <v>31.31845121209216</v>
       </c>
       <c r="G15">
-        <v>3.667647274609276</v>
+        <v>2.09109941188646</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.488755737635611</v>
+        <v>5.635879174234141</v>
       </c>
       <c r="K15">
-        <v>10.96021925614576</v>
+        <v>13.42106898500648</v>
       </c>
       <c r="L15">
-        <v>12.31711319829204</v>
+        <v>9.376276726799162</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.18004766844074</v>
+        <v>12.33845113011408</v>
       </c>
       <c r="O15">
-        <v>26.5683142208995</v>
+        <v>17.15790324221296</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.52716461332451</v>
+        <v>17.59774955485535</v>
       </c>
       <c r="C16">
-        <v>9.975186734759275</v>
+        <v>6.601751083896406</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.72484837219905</v>
+        <v>11.20920752800419</v>
       </c>
       <c r="F16">
-        <v>40.34233172465041</v>
+        <v>30.81626296979055</v>
       </c>
       <c r="G16">
-        <v>3.668738318464456</v>
+        <v>2.094287337008504</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.487386864443696</v>
+        <v>5.629786079834835</v>
       </c>
       <c r="K16">
-        <v>10.85188891497482</v>
+        <v>13.0146284869003</v>
       </c>
       <c r="L16">
-        <v>12.29438458554826</v>
+        <v>9.189265711562181</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>20.21942941723374</v>
+        <v>12.485503154256</v>
       </c>
       <c r="O16">
-        <v>26.60940147631961</v>
+        <v>17.1260563506402</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.42979619916395</v>
+        <v>17.22322710692151</v>
       </c>
       <c r="C17">
-        <v>9.980434222568348</v>
+        <v>6.615305420084959</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.71703519158456</v>
+        <v>11.09571346406033</v>
       </c>
       <c r="F17">
-        <v>40.3290622999107</v>
+        <v>30.51125059412496</v>
       </c>
       <c r="G17">
-        <v>3.669422578556557</v>
+        <v>2.096262243953715</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.486568716741893</v>
+        <v>5.626097780208315</v>
       </c>
       <c r="K17">
-        <v>10.78529238713256</v>
+        <v>12.75939874612417</v>
       </c>
       <c r="L17">
-        <v>12.28087570637625</v>
+        <v>9.073717846725939</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.24404710606831</v>
+        <v>12.57623808387515</v>
       </c>
       <c r="O17">
-        <v>26.63590271944162</v>
+        <v>17.11094180446127</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.37375866022409</v>
+        <v>17.02179828880065</v>
       </c>
       <c r="C18">
-        <v>9.983501353195621</v>
+        <v>6.623206340738934</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.71277072772457</v>
+        <v>11.03046575468472</v>
       </c>
       <c r="F18">
-        <v>40.32227295174858</v>
+        <v>30.33697790086217</v>
       </c>
       <c r="G18">
-        <v>3.669821650276847</v>
+        <v>2.097405424681543</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.486106122765646</v>
+        <v>5.623994828951862</v>
       </c>
       <c r="K18">
-        <v>10.74694923431143</v>
+        <v>12.61042547985007</v>
       </c>
       <c r="L18">
-        <v>12.27326694488777</v>
+        <v>9.006973983782887</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.25837533780856</v>
+        <v>12.62862837007063</v>
       </c>
       <c r="O18">
-        <v>26.651621222048</v>
+        <v>17.10383170604938</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.35478134295153</v>
+        <v>16.95329043171983</v>
       </c>
       <c r="C19">
-        <v>9.984548241625642</v>
+        <v>6.625899403261156</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>15.71136636230693</v>
+        <v>11.00838113221396</v>
       </c>
       <c r="F19">
-        <v>40.32011912987164</v>
+        <v>30.27817532676866</v>
       </c>
       <c r="G19">
-        <v>3.669957715557859</v>
+        <v>2.097793752980534</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.485950871319179</v>
+        <v>5.623285997162251</v>
       </c>
       <c r="K19">
-        <v>10.73396148362837</v>
+        <v>12.55961208857262</v>
       </c>
       <c r="L19">
-        <v>12.2707185776145</v>
+        <v>8.984328762613982</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.26325565647414</v>
+        <v>12.64640240164751</v>
       </c>
       <c r="O19">
-        <v>26.6570248964483</v>
+        <v>17.10169232856734</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.44016516685101</v>
+        <v>17.2634352185667</v>
       </c>
       <c r="C20">
-        <v>9.979870558356085</v>
+        <v>6.613851675064875</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.71784319184293</v>
+        <v>11.10779230794728</v>
       </c>
       <c r="F20">
-        <v>40.33038765979505</v>
+        <v>30.54360021730639</v>
       </c>
       <c r="G20">
-        <v>3.669349168612742</v>
+        <v>2.096051264208176</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.486654984671215</v>
+        <v>5.626488500308242</v>
       </c>
       <c r="K20">
-        <v>10.79238598219208</v>
+        <v>12.78679302606282</v>
       </c>
       <c r="L20">
-        <v>12.28229710172156</v>
+        <v>9.086047918171268</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.24140905066698</v>
+        <v>12.56655850822473</v>
       </c>
       <c r="O20">
-        <v>26.63303237530275</v>
+        <v>17.11238595534101</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.72650502093922</v>
+        <v>18.34489684852394</v>
       </c>
       <c r="C21">
-        <v>9.964737897026515</v>
+        <v>6.574629907098537</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.74233871199124</v>
+        <v>11.4420434423308</v>
       </c>
       <c r="F21">
-        <v>40.37494536416769</v>
+        <v>31.44902468356901</v>
       </c>
       <c r="G21">
-        <v>3.667370196828252</v>
+        <v>2.090282123620451</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.489115801888888</v>
+        <v>5.63746743716088</v>
       </c>
       <c r="K21">
-        <v>10.98813475659357</v>
+        <v>13.52418839600878</v>
       </c>
       <c r="L21">
-        <v>12.32311428417598</v>
+        <v>9.424290623337942</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.17002144364247</v>
+        <v>12.30063890142467</v>
       </c>
       <c r="O21">
-        <v>26.5581071645923</v>
+        <v>17.16752687411808</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.91294090217656</v>
+        <v>19.02280590402799</v>
       </c>
       <c r="C22">
-        <v>9.955281271849222</v>
+        <v>6.549943979437837</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.76036839850507</v>
+        <v>11.66039497309848</v>
       </c>
       <c r="F22">
-        <v>40.41152857246511</v>
+        <v>32.05036917417399</v>
       </c>
       <c r="G22">
-        <v>3.666125556184286</v>
+        <v>2.086571938814702</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.490794306412912</v>
+        <v>5.644802172645044</v>
       </c>
       <c r="K22">
-        <v>11.11545885984953</v>
+        <v>13.98693179651377</v>
       </c>
       <c r="L22">
-        <v>12.35119247406961</v>
+        <v>9.64244905419495</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.12486053668769</v>
+        <v>12.12843377616011</v>
       </c>
       <c r="O22">
-        <v>26.51338390402859</v>
+        <v>17.21855374111898</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.81352008591743</v>
+        <v>18.66361842562446</v>
       </c>
       <c r="C23">
-        <v>9.960288893099065</v>
+        <v>6.563031846559626</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>15.75056190541936</v>
+        <v>11.54388315047238</v>
       </c>
       <c r="F23">
-        <v>40.39132295631656</v>
+        <v>31.7285768421708</v>
       </c>
       <c r="G23">
-        <v>3.666785398620193</v>
+        <v>2.088546840588338</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.489892074352481</v>
+        <v>5.640873164604064</v>
       </c>
       <c r="K23">
-        <v>11.04757191861853</v>
+        <v>13.74170428268885</v>
       </c>
       <c r="L23">
-        <v>12.33608002307412</v>
+        <v>9.526296086816819</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.14882735414396</v>
+        <v>12.22020806442012</v>
       </c>
       <c r="O23">
-        <v>26.53686474971998</v>
+        <v>17.18990522271399</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.43547753621847</v>
+        <v>17.24526766898124</v>
       </c>
       <c r="C24">
-        <v>9.980125234310218</v>
+        <v>6.614508575845611</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.71747718624151</v>
+        <v>11.10233145350223</v>
       </c>
       <c r="F24">
-        <v>40.32978584940314</v>
+        <v>30.52897157081081</v>
       </c>
       <c r="G24">
-        <v>3.669382339548057</v>
+        <v>2.096146623868922</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.486615958725761</v>
+        <v>5.626311801184869</v>
       </c>
       <c r="K24">
-        <v>10.78917913904966</v>
+        <v>12.77441504545449</v>
       </c>
       <c r="L24">
-        <v>12.28165399738943</v>
+        <v>9.080474466093152</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.2426011696909</v>
+        <v>12.57093393951301</v>
       </c>
       <c r="O24">
-        <v>26.63432855474856</v>
+        <v>17.11172814494659</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.02665824816331</v>
+        <v>15.72979608641513</v>
       </c>
       <c r="C25">
-        <v>10.0033933820091</v>
+        <v>6.674036652792238</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.69057393303463</v>
+        <v>10.62750226713218</v>
       </c>
       <c r="F25">
-        <v>40.29564725125706</v>
+        <v>29.27994492378757</v>
       </c>
       <c r="G25">
-        <v>3.672394140650407</v>
+        <v>2.104624334061109</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.483387823713857</v>
+        <v>5.611312968591132</v>
       </c>
       <c r="K25">
-        <v>10.50915220426303</v>
+        <v>11.6479556444325</v>
       </c>
       <c r="L25">
-        <v>12.22912639090664</v>
+        <v>8.589029412670909</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>20.35020964861654</v>
+        <v>12.95707813602582</v>
       </c>
       <c r="O25">
-        <v>26.75763981222441</v>
+        <v>17.08741018231508</v>
       </c>
     </row>
   </sheetData>
